--- a/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/functional_composition_of_core_genes.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/functional_composition_of_core_genes.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.11317254174397</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="C2" t="n">
         <v>1.31578947368421</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.669758812615955</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.163265306122449</v>
+        <v>8.103130755064457</v>
       </c>
       <c r="C4" t="n">
         <v>6.578947368421052</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.421150278293135</v>
+        <v>7.366482504604052</v>
       </c>
       <c r="C5" t="n">
         <v>6.578947368421052</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1855287569573284</v>
+        <v>0.1841620626151013</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.782931354359926</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="C7" t="n">
         <v>2.631578947368421</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.855287569573284</v>
+        <v>1.841620626151013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.927643784786642</v>
+        <v>0.9208103130755065</v>
       </c>
       <c r="C9" t="n">
         <v>2.631578947368421</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.14100185528757</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="C10" t="n">
         <v>5.263157894736842</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7421150278293136</v>
+        <v>0.7366482504604052</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5565862708719851</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.927643784786642</v>
+        <v>0.9208103130755065</v>
       </c>
       <c r="C13" t="n">
         <v>1.31578947368421</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.710575139146568</v>
+        <v>3.683241252302026</v>
       </c>
       <c r="C14" t="n">
         <v>2.631578947368421</v>
@@ -631,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.855287569573284</v>
+        <v>1.557093425605536</v>
       </c>
       <c r="C2" t="n">
-        <v>1.31578947368421</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7421150278293136</v>
+        <v>0.8650519031141869</v>
       </c>
       <c r="C3" t="n">
-        <v>1.31578947368421</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -689,20 +689,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.153988868274583</v>
+        <v>2.768166089965398</v>
       </c>
       <c r="C4" t="n">
-        <v>5.263157894736842</v>
+        <v>9.722222222222223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -711,37 +711,37 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.927643784786642</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.298701298701299</v>
+        <v>0.5190311418685121</v>
       </c>
       <c r="C7" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.298701298701299</v>
+        <v>1.038062283737024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -750,11 +750,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.11317254174397</v>
+        <v>1.903114186851211</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -763,11 +763,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.038062283737024</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -776,11 +776,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.153988868274583</v>
+        <v>0.3460207612456748</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -789,11 +789,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.22634508348794</v>
+        <v>3.28719723183391</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -802,167 +802,167 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3710575139146568</v>
+        <v>17.47404844290658</v>
       </c>
       <c r="C13" t="n">
-        <v>6.578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3710575139146568</v>
+        <v>2.249134948096886</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.671280276816609</v>
       </c>
       <c r="C16" t="n">
-        <v>1.31578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3710575139146568</v>
+        <v>1.211072664359861</v>
       </c>
       <c r="C17" t="n">
-        <v>2.631578947368421</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.710575139146568</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="C18" t="n">
-        <v>5.263157894736842</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.411873840445269</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.22634508348794</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="C20" t="n">
-        <v>2.631578947368421</v>
+        <v>3.472222222222222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5565862708719851</v>
+        <v>2.076124567474048</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1855287569573284</v>
+        <v>1.557093425605536</v>
       </c>
       <c r="C22" t="n">
-        <v>3.947368421052631</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.927643784786642</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.484230055658627</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.298701298701299</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -971,180 +971,180 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.855287569573284</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="C26" t="n">
-        <v>1.31578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8650519031141869</v>
       </c>
       <c r="C27" t="n">
-        <v>3.947368421052631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5565862708719851</v>
+        <v>1.557093425605536</v>
       </c>
       <c r="C28" t="n">
-        <v>1.31578947368421</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.50278293135436</v>
+        <v>0.8650519031141869</v>
       </c>
       <c r="C29" t="n">
-        <v>13.1578947368421</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.730103806228374</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.669758812615955</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.11317254174397</v>
+        <v>0.6920415224913495</v>
       </c>
       <c r="C32" t="n">
-        <v>1.31578947368421</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.669758812615955</v>
+        <v>1.211072664359861</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.267161410018553</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.894736842105263</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.21335807050093</v>
+        <v>1.557093425605536</v>
       </c>
       <c r="C35" t="n">
-        <v>7.894736842105263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.163265306122449</v>
+        <v>1.384083044982699</v>
       </c>
       <c r="C36" t="n">
-        <v>10.52631578947368</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.936920222634509</v>
+        <v>1.384083044982699</v>
       </c>
       <c r="C37" t="n">
-        <v>14.47368421052632</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.782931354359926</v>
+        <v>3.28719723183391</v>
       </c>
       <c r="C38" t="n">
-        <v>2.631578947368421</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.040816326530612</v>
+        <v>1.038062283737024</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1153,63 +1153,63 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.298701298701299</v>
+        <v>7.093425605536333</v>
       </c>
       <c r="C40" t="n">
-        <v>1.31578947368421</v>
+        <v>4.861111111111112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.11317254174397</v>
+        <v>4.325259515570934</v>
       </c>
       <c r="C41" t="n">
-        <v>2.631578947368421</v>
+        <v>4.861111111111112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.28719723183391</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.927643784786642</v>
+        <v>1.730103806228374</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3710575139146568</v>
+        <v>1.730103806228374</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1218,105 +1218,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.597402597402597</v>
+        <v>0.8650519031141869</v>
       </c>
       <c r="C45" t="n">
-        <v>3.947368421052631</v>
+        <v>3.472222222222222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.038062283737024</v>
       </c>
       <c r="C47" t="n">
-        <v>1.31578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.76994434137291</v>
+        <v>1.730103806228374</v>
       </c>
       <c r="C48" t="n">
-        <v>13.1578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.040816326530612</v>
+        <v>2.422145328719723</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.472222222222222</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.298701298701299</v>
+        <v>1.557093425605536</v>
       </c>
       <c r="C50" t="n">
-        <v>1.31578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.669758812615955</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.31578947368421</v>
+        <v>3.472222222222222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.920415224913495</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.97222222222222</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.422145328719723</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.211072664359861</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.730103806228374</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.631578947368421</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.472222222222222</v>
       </c>
     </row>
   </sheetData>
